--- a/dataset/Migrated Information/Migrated Working Area.xlsx
+++ b/dataset/Migrated Information/Migrated Working Area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataShift\dataset\Migrated Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940CB56-AA9B-4869-9720-50D31BA005FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8D216-68FC-4A2D-A1E3-63CF73D8C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+  <si>
+    <t>Branch Code</t>
+  </si>
   <si>
     <t>Migrated Working Area</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Chamardani</t>
+  </si>
+  <si>
+    <t>Working Area is Migrated</t>
+  </si>
+  <si>
+    <t>Badalpur</t>
+  </si>
+  <si>
+    <t>Balarampur</t>
+  </si>
+  <si>
+    <t>Kayetkanda</t>
+  </si>
+  <si>
+    <t>Sulemanpur</t>
+  </si>
+  <si>
+    <t>Maddhanagar</t>
+  </si>
+  <si>
+    <t>Nowapara</t>
+  </si>
+  <si>
+    <t>Maddhanagar Sheikhpara</t>
+  </si>
+  <si>
+    <t>Telipara</t>
+  </si>
+  <si>
+    <t>Majlispur</t>
+  </si>
+  <si>
+    <t>Maskanda</t>
+  </si>
+  <si>
+    <t>Dowlotpur</t>
+  </si>
+  <si>
+    <t>Khadipur</t>
+  </si>
+  <si>
+    <t>Sabari para</t>
+  </si>
+  <si>
+    <t>Jomsherpur</t>
+  </si>
+  <si>
+    <t>Kadipur Nayapara</t>
+  </si>
+  <si>
+    <t>Boithakhali</t>
+  </si>
+  <si>
+    <t>Koroajan</t>
+  </si>
+  <si>
+    <t>Maddhanagar Bazar</t>
+  </si>
+  <si>
+    <t>Horipur</t>
+  </si>
+  <si>
+    <t>Haoripara</t>
+  </si>
+  <si>
+    <t>Piprakanda</t>
+  </si>
+  <si>
+    <t>Bogshkunda</t>
+  </si>
+  <si>
+    <t>Itauri</t>
+  </si>
+  <si>
+    <t>Alipur, Gastola.</t>
+  </si>
+  <si>
+    <t>Noagaon</t>
+  </si>
+  <si>
+    <t>Machuakanda</t>
+  </si>
+  <si>
+    <t>Ramdigha</t>
+  </si>
+  <si>
+    <t>Bongaon</t>
+  </si>
+  <si>
+    <t>Kahala</t>
+  </si>
+  <si>
+    <t>Maijpara</t>
+  </si>
+  <si>
+    <t>Goluikhali</t>
+  </si>
+  <si>
+    <t>Shaliyani</t>
+  </si>
+  <si>
+    <t>Gondhirgaon</t>
+  </si>
+  <si>
+    <t>Jamal pur</t>
+  </si>
+  <si>
+    <t>Thanaura</t>
+  </si>
+  <si>
+    <t>Kamaura</t>
+  </si>
+  <si>
+    <t>Dhorabpur 21.03.2018</t>
+  </si>
+  <si>
+    <t>Patkura</t>
+  </si>
+  <si>
+    <t>Etauri, Maddhanagar Gram</t>
+  </si>
+  <si>
+    <t>Madhhanagar Pal Para</t>
+  </si>
+  <si>
+    <t>Nowagaon</t>
+  </si>
+  <si>
+    <t>Khalishakanda</t>
+  </si>
+  <si>
+    <t>Shararkona</t>
+  </si>
+  <si>
+    <t>Koluma</t>
+  </si>
+  <si>
+    <t>Bekhoijura</t>
+  </si>
+  <si>
+    <t>Faruknagar</t>
+  </si>
+  <si>
+    <t>Gashi 04.03.2018</t>
+  </si>
+  <si>
+    <t>Daksnura</t>
+  </si>
+  <si>
+    <t>Nondipara</t>
+  </si>
+  <si>
+    <t>Kamargaon</t>
+  </si>
+  <si>
+    <t>balarampur</t>
+  </si>
+  <si>
+    <t>Kawhani</t>
+  </si>
+  <si>
+    <t>Badda</t>
+  </si>
+  <si>
+    <t>Aliarpur</t>
+  </si>
+  <si>
+    <t>Sonoi</t>
+  </si>
+  <si>
+    <t>Teperkona</t>
+  </si>
+  <si>
+    <t>Rasulpur</t>
+  </si>
+  <si>
+    <t>Shisua</t>
+  </si>
+  <si>
+    <t>Abidnagar</t>
+  </si>
+  <si>
+    <t>Sanuya</t>
+  </si>
+  <si>
+    <t>Golha</t>
+  </si>
+  <si>
+    <t>Etauri</t>
+  </si>
+  <si>
+    <t>Rangamati</t>
+  </si>
+  <si>
+    <t>Kustibari</t>
+  </si>
+  <si>
+    <t>Sadipur</t>
+  </si>
+  <si>
+    <t>Lahurdugni</t>
+  </si>
+  <si>
+    <t>Sampadpur</t>
+  </si>
+  <si>
+    <t>Baliya</t>
+  </si>
+  <si>
+    <t>Birsigh para</t>
+  </si>
+  <si>
+    <t>Sunai</t>
+  </si>
+  <si>
+    <t>Golekali</t>
+  </si>
+  <si>
+    <t>Sunai Kandabari</t>
+  </si>
+  <si>
+    <t>false1</t>
+  </si>
+  <si>
+    <t>Kwohani</t>
+  </si>
+  <si>
+    <t>Mirjapur</t>
+  </si>
+  <si>
+    <t>Necenropur</t>
   </si>
 </sst>
 </file>
@@ -377,20 +614,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
